--- a/2nd Sem/Thesis/Updates/Checklist_SY_2022_2023_2nd_Semester.xlsx
+++ b/2nd Sem/Thesis/Updates/Checklist_SY_2022_2023_2nd_Semester.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angie\Documents\USC Documents\Subjects\Thesis\Thesis Proposal\Schedule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School Work\CS 3\2nd Sem\Thesis\Updates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099673D8-5725-4F9D-AE49-32D82C82512D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8376" yWindow="348" windowWidth="10716" windowHeight="7608"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="16155" windowHeight="12795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BSCS" sheetId="4" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="39">
   <si>
     <t>University of San Carlos</t>
   </si>
@@ -133,12 +134,15 @@
   </si>
   <si>
     <t>Sat</t>
+  </si>
+  <si>
+    <t>Christine F. Peña, MMath</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -433,6 +437,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -468,6 +489,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -643,28 +681,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C8" sqref="C8:C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="1.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="54.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="1.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="54.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" style="1" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="50" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.5546875" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="1"/>
+    <col min="9" max="9" width="24.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15.6">
+    <row r="1" spans="2:9" ht="15.75">
       <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
@@ -676,7 +714,7 @@
       <c r="H1" s="18"/>
       <c r="I1" s="18"/>
     </row>
-    <row r="2" spans="2:9" ht="15.6">
+    <row r="2" spans="2:9" ht="15.75">
       <c r="B2" s="18" t="s">
         <v>1</v>
       </c>
@@ -688,7 +726,7 @@
       <c r="H2" s="18"/>
       <c r="I2" s="18"/>
     </row>
-    <row r="3" spans="2:9" ht="15.6">
+    <row r="3" spans="2:9" ht="15.75">
       <c r="B3" s="18" t="s">
         <v>22</v>
       </c>
@@ -700,7 +738,7 @@
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
     </row>
-    <row r="4" spans="2:9" ht="15.6">
+    <row r="4" spans="2:9" ht="15.75">
       <c r="B4" s="17" t="s">
         <v>15</v>
       </c>
@@ -712,7 +750,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="2:9" ht="15.6">
+    <row r="5" spans="2:9" ht="15.75">
       <c r="B5" s="17" t="s">
         <v>2</v>
       </c>
@@ -724,7 +762,7 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="2:9" ht="15.6">
+    <row r="6" spans="2:9" ht="15.75">
       <c r="B6" s="17" t="s">
         <v>17</v>
       </c>
@@ -736,11 +774,13 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="2:9" ht="15.6">
+    <row r="7" spans="2:9" ht="15.75">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -850,7 +890,7 @@
       </c>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="2:9" ht="46.8">
+    <row r="13" spans="2:9" ht="47.25">
       <c r="B13" s="2">
         <v>4</v>
       </c>
@@ -872,7 +912,7 @@
       </c>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="2:9" ht="15.6">
+    <row r="14" spans="2:9" ht="15.75">
       <c r="B14" s="2">
         <v>5</v>
       </c>
@@ -894,7 +934,7 @@
       </c>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="2:9" ht="31.2">
+    <row r="15" spans="2:9" ht="31.5">
       <c r="B15" s="2">
         <v>6</v>
       </c>
@@ -916,7 +956,7 @@
       </c>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="2:9" ht="15.6">
+    <row r="16" spans="2:9" ht="15.75">
       <c r="B16" s="2">
         <v>7</v>
       </c>
@@ -938,7 +978,7 @@
       </c>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="2:9" ht="31.2">
+    <row r="17" spans="2:9" ht="31.5">
       <c r="B17" s="2">
         <v>8</v>
       </c>
@@ -1002,7 +1042,7 @@
       </c>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="2:9" ht="31.2">
+    <row r="20" spans="2:9" ht="31.5">
       <c r="B20" s="2">
         <v>12</v>
       </c>
@@ -1024,7 +1064,7 @@
       </c>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="2:9" ht="15.6">
+    <row r="21" spans="2:9" ht="15.75">
       <c r="B21" s="2">
         <v>13</v>
       </c>
@@ -1038,7 +1078,7 @@
       <c r="H21" s="8"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="23" spans="2:9" ht="15.6">
+    <row r="23" spans="2:9" ht="15.75">
       <c r="C23" s="16" t="s">
         <v>9</v>
       </c>
